--- a/db/Info.xlsx
+++ b/db/Info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
   <si>
     <t>Make</t>
   </si>
@@ -2394,12 +2394,6 @@
   </si>
   <si>
     <t>2266824001,A2272459002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CONFO101</t>
   </si>
   <si>
     <t>TERRA STAR,DURA</t>
@@ -3603,9 +3597,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -3615,12 +3607,8 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -3630,9 +3618,7 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -3648,9 +3634,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -3660,12 +3644,8 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -3675,9 +3655,7 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -3693,9 +3671,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -3703,12 +3679,8 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -3716,9 +3688,7 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -3732,9 +3702,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -3744,9 +3712,7 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -4111,17 +4077,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4148,10 +4114,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4390,12 +4356,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -4672,7 +4638,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4699,10 +4665,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -15331,7 +15297,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -16842,16 +16808,18 @@
     </row>
     <row r="65" ht="13.55" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>400</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B65" t="s" s="3">
+        <v>610</v>
+      </c>
+      <c r="C65" t="s" s="3">
+        <v>69</v>
+      </c>
       <c r="D65" t="s" s="3">
         <v>381</v>
       </c>
-      <c r="E65" t="s" s="3">
-        <v>610</v>
-      </c>
+      <c r="E65" s="4"/>
       <c r="F65" t="s" s="3">
         <v>611</v>
       </c>
@@ -16862,59 +16830,39 @@
       <c r="A66" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" s="7">
+        <v>910092009400</v>
+      </c>
+      <c r="C66" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" t="s" s="3">
         <v>612</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D66" t="s" s="3">
-        <v>381</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" t="s" s="3">
-        <v>613</v>
+      <c r="F66" s="6">
+        <v>1402013</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
     <row r="67" ht="13.55" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B67" s="7">
-        <v>910092009400</v>
+        <v>39</v>
+      </c>
+      <c r="B67" t="s" s="3">
+        <v>225</v>
       </c>
       <c r="C67" t="s" s="3">
         <v>73</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="F67" s="6">
-        <v>1402013</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="B68" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="C68" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16987,24 +16935,24 @@
         <v>425</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s" s="3">
         <v>259</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E2" s="6">
         <v>226577000</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" t="s" s="3">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J2" s="32">
         <v>390</v>
@@ -17013,29 +16961,29 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C3" t="s" s="3">
         <v>601</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E3" s="6">
         <v>226577000</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" t="s" s="3">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J3" s="32">
         <v>390</v>
@@ -17053,18 +17001,18 @@
         <v>59</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E4" s="6">
         <v>226577000</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" t="s" s="3">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J4" s="32">
         <v>379</v>
@@ -17076,24 +17024,24 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C5" t="s" s="3">
         <v>138</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" t="s" s="3">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J5" s="32">
         <v>249</v>
@@ -17108,21 +17056,21 @@
         <v>387389</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E6" t="s" s="3">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F6" t="s" s="3">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" t="s" s="3">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J6" s="32">
         <v>249</v>
@@ -17131,27 +17079,27 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>627</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>628</v>
+      </c>
+      <c r="C7" t="s" s="3">
         <v>629</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="D7" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>630</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="F7" t="s" s="3">
         <v>631</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>632</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>633</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" t="s" s="3">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J7" s="32">
         <v>249</v>
@@ -17160,7 +17108,7 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B8" t="s" s="36">
         <v>43</v>
@@ -17169,20 +17117,20 @@
         <v>598</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F8" t="s" s="3">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G8" t="s" s="3">
         <v>97</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" t="s" s="3">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J8" s="32">
         <v>249</v>
@@ -17194,24 +17142,24 @@
         <v>97</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6">
         <v>85130015</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" t="s" s="3">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J9" s="32">
         <v>249</v>
@@ -17226,21 +17174,21 @@
         <v>377</v>
       </c>
       <c r="C10" t="s" s="3">
+        <v>637</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>638</v>
+      </c>
+      <c r="F10" t="s" s="3">
         <v>639</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>640</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>641</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" t="s" s="3">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J10" s="32">
         <v>249</v>
@@ -17258,18 +17206,18 @@
         <v>598</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" t="s" s="3">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J11" s="32">
         <v>249</v>
@@ -17281,24 +17229,24 @@
         <v>34</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C12" t="s" s="3">
+        <v>642</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>643</v>
+      </c>
+      <c r="F12" t="s" s="3">
         <v>644</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>645</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>646</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" t="s" s="3">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J12" s="32">
         <v>249</v>
@@ -17316,18 +17264,18 @@
         <v>268</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" t="s" s="3">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J13" s="32">
         <v>249</v>
@@ -17339,26 +17287,26 @@
         <v>39</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C14" t="s" s="3">
         <v>175</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" t="s" s="3">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I14" t="s" s="3">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J14" s="32">
         <v>249</v>
@@ -17370,26 +17318,26 @@
         <v>39</v>
       </c>
       <c r="B15" t="s" s="3">
+        <v>652</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>653</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E15" t="s" s="3">
         <v>654</v>
       </c>
-      <c r="C15" t="s" s="3">
-        <v>655</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>656</v>
-      </c>
       <c r="F15" t="s" s="3">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" t="s" s="3">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I15" t="s" s="3">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J15" s="32">
         <v>249.99</v>
@@ -17398,50 +17346,50 @@
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" t="s" s="3">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="3">
+        <v>660</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>661</v>
+      </c>
+      <c r="C17" t="s" s="3">
         <v>662</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="D17" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E17" t="s" s="3">
         <v>663</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="F17" t="s" s="3">
         <v>664</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>665</v>
-      </c>
-      <c r="F17" t="s" s="3">
-        <v>666</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" t="s" s="3">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="4"/>
@@ -17454,23 +17402,23 @@
         <v>375</v>
       </c>
       <c r="C18" t="s" s="3">
+        <v>666</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>667</v>
+      </c>
+      <c r="F18" t="s" s="3">
         <v>668</v>
-      </c>
-      <c r="D18" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>669</v>
-      </c>
-      <c r="F18" t="s" s="3">
-        <v>670</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" t="s" s="3">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I18" t="s" s="3">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="4"/>
@@ -17480,26 +17428,26 @@
         <v>16</v>
       </c>
       <c r="B19" t="s" s="37">
+        <v>671</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>672</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E19" t="s" s="3">
         <v>673</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="F19" t="s" s="3">
         <v>674</v>
-      </c>
-      <c r="D19" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>675</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>676</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" t="s" s="3">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I19" t="s" s="3">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="4"/>
@@ -17509,26 +17457,26 @@
         <v>16</v>
       </c>
       <c r="B20" t="s" s="38">
+        <v>677</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>678</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E20" t="s" s="3">
         <v>679</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="F20" t="s" s="3">
         <v>680</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>681</v>
-      </c>
-      <c r="F20" t="s" s="3">
-        <v>682</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" t="s" s="3">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I20" t="s" s="3">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="4"/>
@@ -17544,18 +17492,18 @@
         <v>36</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" t="s" s="3">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="4"/>
@@ -17565,26 +17513,26 @@
         <v>400</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C22" t="s" s="3">
         <v>427</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" t="s" s="3">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I22" t="s" s="3">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J22" s="32">
         <v>189.99</v>
@@ -17596,26 +17544,26 @@
         <v>400</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C23" t="s" s="3">
         <v>427</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" t="s" s="3">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I23" t="s" s="3">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J23" s="32">
         <v>189.99</v>
@@ -17630,21 +17578,21 @@
         <v>92</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" t="s" s="3">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="4"/>
@@ -17657,46 +17605,46 @@
         <v>92</v>
       </c>
       <c r="C25" t="s" s="3">
+        <v>696</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>697</v>
+      </c>
+      <c r="F25" t="s" s="3">
         <v>698</v>
-      </c>
-      <c r="D25" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>699</v>
-      </c>
-      <c r="F25" t="s" s="3">
-        <v>700</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" t="s" s="3">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J25" s="32"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C26" s="6">
         <v>2003</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" t="s" s="3">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" t="s" s="3">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -17711,17 +17659,17 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" t="s" s="3">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" t="s" s="3">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I27" t="s" s="3">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -17731,20 +17679,20 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E28" s="6">
         <v>2248437000</v>
       </c>
       <c r="F28" t="s" s="3">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" t="s" s="3">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I28" t="s" s="3">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -17760,30 +17708,30 @@
         <v>559</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F29" t="s" s="3">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" t="s" s="3">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E30" s="6">
         <v>2247558000</v>
@@ -17794,7 +17742,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" t="s" s="3">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -17804,26 +17752,26 @@
         <v>400</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E31" s="7">
         <v>47764421</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="6">
         <v>4734</v>
       </c>
       <c r="I31" t="s" s="3">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -17836,21 +17784,21 @@
         <v>345</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E32" s="6">
         <v>4377</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" t="s" s="3">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -17863,23 +17811,23 @@
         <v>345</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E33" s="6">
         <v>4377</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="6">
         <v>4425</v>
       </c>
       <c r="I33" t="s" s="3">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -17889,19 +17837,19 @@
         <v>400</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C34" t="s" s="3">
         <v>427</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E34" s="6">
         <v>4430</v>
       </c>
       <c r="F34" t="s" s="3">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="6">
@@ -17916,19 +17864,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s" s="3">
+        <v>719</v>
+      </c>
+      <c r="C35" t="s" s="3">
+        <v>720</v>
+      </c>
+      <c r="D35" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="E35" t="s" s="3">
         <v>721</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="F35" t="s" s="3">
         <v>722</v>
-      </c>
-      <c r="D35" t="s" s="3">
-        <v>616</v>
-      </c>
-      <c r="E35" t="s" s="3">
-        <v>723</v>
-      </c>
-      <c r="F35" t="s" s="3">
-        <v>724</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -17938,19 +17886,19 @@
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C36" t="s" s="3">
         <v>211</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F36" s="6">
         <v>1402013</v>
@@ -17966,19 +17914,19 @@
         <v>91</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D37" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E37" s="6">
         <v>20721587</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -17991,19 +17939,19 @@
         <v>97</v>
       </c>
       <c r="B38" t="s" s="8">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E38" s="6">
         <v>20721587</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -18016,13 +17964,13 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E39" s="6">
         <v>4078</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -18035,10 +17983,10 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F40" s="6">
         <v>1402011</v>
@@ -18060,13 +18008,13 @@
         <v>110</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E41" s="6">
         <v>4748</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -18076,18 +18024,18 @@
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" t="s" s="3">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E42" s="6">
         <v>88310</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -18301,7 +18249,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" t="s" s="3">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K58" s="4"/>
     </row>
@@ -18353,10 +18301,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I1" t="s" s="3">
         <v>376</v>
@@ -18367,22 +18315,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="3">
+        <v>739</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>740</v>
+      </c>
+      <c r="D2" t="s" s="3">
         <v>741</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="E2" t="s" s="3">
         <v>742</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>743</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>744</v>
       </c>
       <c r="F2" s="6">
         <v>1912005</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H2" s="32">
         <v>69</v>
@@ -18394,20 +18342,20 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C3" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s" s="3">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F3" s="6">
         <v>1912008</v>
       </c>
       <c r="G3" t="s" s="3">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H3" s="32">
         <v>69</v>
@@ -18419,20 +18367,20 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C4" t="s" s="3">
         <v>206</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s" s="3">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F4" s="6">
         <v>1912010</v>
       </c>
       <c r="G4" t="s" s="3">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H4" s="32">
         <v>69</v>
@@ -18444,20 +18392,20 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C5" t="s" s="3">
         <v>196</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" t="s" s="3">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F5" s="6">
         <v>1912011</v>
       </c>
       <c r="G5" t="s" s="3">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H5" s="32">
         <v>69</v>
@@ -18469,20 +18417,20 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C6" t="s" s="3">
         <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" t="s" s="3">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F6" s="6">
         <v>1912013</v>
       </c>
       <c r="G6" t="s" s="3">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H6" s="32">
         <v>89</v>
@@ -18491,23 +18439,23 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C7" t="s" s="3">
         <v>211</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s" s="3">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F7" s="6">
         <v>1913004</v>
       </c>
       <c r="G7" t="s" s="3">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H7" s="32">
         <v>69</v>
@@ -18516,23 +18464,23 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C8" t="s" s="3">
         <v>206</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s" s="3">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F8" s="6">
         <v>1913007</v>
       </c>
       <c r="G8" t="s" s="3">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H8" s="32">
         <v>69</v>
@@ -18544,20 +18492,20 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s" s="3">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F9" s="6">
         <v>1914003</v>
       </c>
       <c r="G9" t="s" s="3">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H9" s="32">
         <v>69</v>
@@ -18572,17 +18520,17 @@
         <v>3.30335340377378e+20</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s" s="3">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F10" s="6">
         <v>1917004</v>
       </c>
       <c r="G10" t="s" s="3">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H10" s="32">
         <v>69</v>
@@ -18597,17 +18545,17 @@
         <v>365367384386389</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s" s="3">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F11" s="6">
         <v>1917003</v>
       </c>
       <c r="G11" t="s" s="3">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H11" s="32">
         <v>69</v>
@@ -18619,7 +18567,7 @@
         <v>91</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s" s="3">
         <v>110</v>
@@ -18632,7 +18580,7 @@
         <v>1918005</v>
       </c>
       <c r="G12" t="s" s="3">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H12" s="32">
         <v>69</v>
@@ -18641,23 +18589,23 @@
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B13" s="7">
         <v>1800490058005900</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s" s="3">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F13" s="6">
         <v>1919003</v>
       </c>
       <c r="G13" t="s" s="3">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H13" s="32">
         <v>69</v>
@@ -18669,20 +18617,20 @@
         <v>39</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" t="s" s="3">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F14" s="6">
         <v>1999046</v>
       </c>
       <c r="G14" t="s" s="3">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H14" s="32">
         <v>69</v>
@@ -18697,17 +18645,17 @@
         <v>387</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" t="s" s="3">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F15" s="6">
         <v>1999046</v>
       </c>
       <c r="G15" t="s" s="3">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H15" s="32">
         <v>69</v>
@@ -18725,16 +18673,16 @@
         <v>36</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F16" s="6">
         <v>1912015</v>
       </c>
       <c r="G16" t="s" s="3">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H16" s="32">
         <v>89</v>
@@ -18759,14 +18707,14 @@
         <v>34</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s" s="3">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F18" s="6">
         <v>1917005</v>
@@ -18822,10 +18770,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I1" t="s" s="3">
         <v>376</v>
@@ -18843,16 +18791,16 @@
         <v>237</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E2" s="7">
         <v>2.01519037204355e+16</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H2" s="32">
         <v>149</v>
@@ -18868,19 +18816,19 @@
         <v>92</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E3" s="6">
         <v>21074569</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G3" t="s" s="3">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H3" s="32">
         <v>249</v>
@@ -18890,25 +18838,25 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="3">
+        <v>794</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>795</v>
+      </c>
+      <c r="C4" t="s" s="3">
         <v>796</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="D4" t="s" s="3">
+        <v>788</v>
+      </c>
+      <c r="E4" t="s" s="3">
         <v>797</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="F4" t="s" s="3">
         <v>798</v>
       </c>
-      <c r="D4" t="s" s="3">
-        <v>790</v>
-      </c>
-      <c r="E4" t="s" s="3">
+      <c r="G4" t="s" s="3">
         <v>799</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>800</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>801</v>
       </c>
       <c r="H4" s="32">
         <v>339</v>
@@ -18921,22 +18869,22 @@
         <v>16</v>
       </c>
       <c r="B5" t="s" s="3">
+        <v>800</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>696</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>788</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>801</v>
+      </c>
+      <c r="F5" t="s" s="3">
         <v>802</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>698</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>790</v>
-      </c>
-      <c r="E5" t="s" s="3">
+      <c r="G5" t="s" s="3">
         <v>803</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>804</v>
-      </c>
-      <c r="G5" t="s" s="3">
-        <v>805</v>
       </c>
       <c r="H5" s="32">
         <v>395</v>
@@ -18955,16 +18903,16 @@
         <v>217</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E6" t="s" s="3">
+        <v>804</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>805</v>
+      </c>
+      <c r="G6" t="s" s="3">
         <v>806</v>
-      </c>
-      <c r="F6" t="s" s="3">
-        <v>807</v>
-      </c>
-      <c r="G6" t="s" s="3">
-        <v>808</v>
       </c>
       <c r="H6" s="32">
         <v>145</v>
@@ -18974,7 +18922,7 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B7" t="s" s="3">
         <v>9</v>
@@ -18983,16 +18931,16 @@
         <v>206</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E7" t="s" s="3">
+        <v>807</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>808</v>
+      </c>
+      <c r="G7" t="s" s="3">
         <v>809</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>810</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>811</v>
       </c>
       <c r="H7" s="32">
         <v>349</v>
@@ -19002,7 +18950,7 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B8" t="s" s="3">
         <v>282</v>
@@ -19011,16 +18959,16 @@
         <v>166</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E8" t="s" s="3">
+        <v>810</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>811</v>
+      </c>
+      <c r="G8" t="s" s="3">
         <v>812</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>813</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>814</v>
       </c>
       <c r="H8" s="32">
         <v>295</v>
@@ -19030,25 +18978,25 @@
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B9" t="s" s="3">
+        <v>813</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>814</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>788</v>
+      </c>
+      <c r="E9" t="s" s="3">
         <v>815</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="F9" t="s" s="3">
         <v>816</v>
       </c>
-      <c r="D9" t="s" s="3">
-        <v>790</v>
-      </c>
-      <c r="E9" t="s" s="3">
+      <c r="G9" t="s" s="3">
         <v>817</v>
-      </c>
-      <c r="F9" t="s" s="3">
-        <v>818</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>819</v>
       </c>
       <c r="H9" s="32">
         <v>329</v>
@@ -19058,25 +19006,25 @@
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C10" t="s" s="3">
         <v>175</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E10" t="s" s="3">
+        <v>819</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>820</v>
+      </c>
+      <c r="G10" t="s" s="3">
         <v>821</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>822</v>
-      </c>
-      <c r="G10" t="s" s="3">
-        <v>823</v>
       </c>
       <c r="H10" s="32">
         <v>135</v>
@@ -19086,25 +19034,25 @@
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E11" s="6">
         <v>523195000</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G11" t="s" s="3">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H11" s="32">
         <v>199</v>
@@ -19119,13 +19067,13 @@
       <c r="B12" s="30"/>
       <c r="C12" s="4"/>
       <c r="D12" t="s" s="3">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="32"/>

--- a/db/Info.xlsx
+++ b/db/Info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="826">
   <si>
     <t>Make</t>
   </si>
@@ -1371,17 +1371,6 @@
   </si>
   <si>
     <t>CFR05</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>confr105.gif</t>
-    </r>
   </si>
   <si>
     <t>FL50-60-70-80/FL106</t>
@@ -15475,9 +15464,7 @@
       <c r="F7" t="s" s="3">
         <v>404</v>
       </c>
-      <c r="G7" t="s" s="3">
-        <v>405</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -15485,22 +15472,22 @@
         <v>400</v>
       </c>
       <c r="B8" t="s" s="3">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>406</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>407</v>
       </c>
       <c r="D8" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E8" t="s" s="3">
+        <v>407</v>
+      </c>
+      <c r="F8" t="s" s="3">
         <v>408</v>
       </c>
-      <c r="F8" t="s" s="3">
+      <c r="G8" t="s" s="3">
         <v>409</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>410</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -15509,22 +15496,22 @@
         <v>400</v>
       </c>
       <c r="B9" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="C9" t="s" s="3">
         <v>411</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>412</v>
       </c>
       <c r="D9" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E9" t="s" s="3">
+        <v>412</v>
+      </c>
+      <c r="F9" t="s" s="3">
         <v>413</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="G9" t="s" s="3">
         <v>414</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>415</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -15533,7 +15520,7 @@
         <v>400</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s" s="3">
         <v>356</v>
@@ -15542,13 +15529,13 @@
         <v>381</v>
       </c>
       <c r="E10" t="s" s="3">
+        <v>416</v>
+      </c>
+      <c r="F10" t="s" s="3">
         <v>417</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="G10" t="s" s="3">
         <v>418</v>
-      </c>
-      <c r="G10" t="s" s="3">
-        <v>419</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -15557,55 +15544,55 @@
         <v>400</v>
       </c>
       <c r="B11" t="s" s="3">
+        <v>419</v>
+      </c>
+      <c r="C11" t="s" s="3">
         <v>420</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>421</v>
       </c>
       <c r="D11" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E11" t="s" s="3">
+        <v>421</v>
+      </c>
+      <c r="F11" t="s" s="3">
         <v>422</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="G11" t="s" s="3">
         <v>423</v>
-      </c>
-      <c r="G11" t="s" s="3">
-        <v>424</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="3">
+        <v>424</v>
+      </c>
+      <c r="B12" t="s" s="3">
         <v>425</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="C12" t="s" s="3">
         <v>426</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>427</v>
       </c>
       <c r="D12" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E12" t="s" s="3">
+        <v>427</v>
+      </c>
+      <c r="F12" t="s" s="3">
         <v>428</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="G12" t="s" s="3">
         <v>429</v>
-      </c>
-      <c r="G12" t="s" s="3">
-        <v>430</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C13" t="s" s="3">
         <v>26</v>
@@ -15614,66 +15601,66 @@
         <v>381</v>
       </c>
       <c r="E13" t="s" s="3">
+        <v>431</v>
+      </c>
+      <c r="F13" t="s" s="3">
         <v>432</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="G13" t="s" s="3">
         <v>433</v>
-      </c>
-      <c r="G13" t="s" s="3">
-        <v>434</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D14" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" t="s" s="3">
+        <v>435</v>
+      </c>
+      <c r="G14" t="s" s="3">
         <v>436</v>
-      </c>
-      <c r="G14" t="s" s="3">
-        <v>437</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s" s="3">
+        <v>437</v>
+      </c>
+      <c r="C15" t="s" s="3">
         <v>438</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>439</v>
       </c>
       <c r="D15" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" t="s" s="3">
+        <v>439</v>
+      </c>
+      <c r="G15" t="s" s="3">
         <v>440</v>
-      </c>
-      <c r="G15" t="s" s="3">
-        <v>441</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s" s="3">
         <v>10</v>
@@ -15682,19 +15669,19 @@
         <v>381</v>
       </c>
       <c r="E16" t="s" s="3">
+        <v>442</v>
+      </c>
+      <c r="F16" t="s" s="3">
         <v>443</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="G16" t="s" s="3">
         <v>444</v>
-      </c>
-      <c r="G16" t="s" s="3">
-        <v>445</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s" s="3">
         <v>25</v>
@@ -15706,22 +15693,22 @@
         <v>381</v>
       </c>
       <c r="E17" t="s" s="3">
+        <v>445</v>
+      </c>
+      <c r="F17" t="s" s="3">
         <v>446</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="G17" t="s" s="3">
         <v>447</v>
-      </c>
-      <c r="G17" t="s" s="3">
-        <v>448</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" t="s" s="3">
         <v>109</v>
@@ -15730,92 +15717,92 @@
         <v>381</v>
       </c>
       <c r="E18" t="s" s="3">
+        <v>449</v>
+      </c>
+      <c r="F18" t="s" s="3">
         <v>450</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="G18" t="s" s="3">
         <v>451</v>
-      </c>
-      <c r="G18" t="s" s="3">
-        <v>452</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D19" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E19" t="s" s="3">
+        <v>453</v>
+      </c>
+      <c r="F19" t="s" s="3">
         <v>454</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="G19" t="s" s="3">
         <v>455</v>
-      </c>
-      <c r="G19" t="s" s="3">
-        <v>456</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B20" t="s" s="3">
         <v>54</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D20" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E20" t="s" s="3">
+        <v>457</v>
+      </c>
+      <c r="F20" t="s" s="3">
         <v>458</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="G20" t="s" s="3">
         <v>459</v>
-      </c>
-      <c r="G20" t="s" s="3">
-        <v>460</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s" s="3">
+        <v>460</v>
+      </c>
+      <c r="C21" t="s" s="3">
         <v>461</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>462</v>
       </c>
       <c r="D21" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s" s="3">
+        <v>462</v>
+      </c>
+      <c r="G21" t="s" s="3">
         <v>463</v>
-      </c>
-      <c r="G21" t="s" s="3">
-        <v>464</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s" s="3">
         <v>109</v>
@@ -15824,13 +15811,13 @@
         <v>381</v>
       </c>
       <c r="E22" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F22" t="s" s="3">
         <v>466</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="G22" t="s" s="3">
         <v>467</v>
-      </c>
-      <c r="G22" t="s" s="3">
-        <v>468</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -15839,31 +15826,31 @@
         <v>16</v>
       </c>
       <c r="B23" t="s" s="3">
+        <v>468</v>
+      </c>
+      <c r="C23" t="s" s="3">
         <v>469</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>470</v>
       </c>
       <c r="D23" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E23" t="s" s="3">
+        <v>470</v>
+      </c>
+      <c r="F23" t="s" s="3">
         <v>471</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="G23" t="s" s="3">
         <v>472</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>473</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="B24" t="s" s="3">
         <v>474</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>475</v>
       </c>
       <c r="C24" t="s" s="3">
         <v>175</v>
@@ -15872,22 +15859,22 @@
         <v>381</v>
       </c>
       <c r="E24" t="s" s="3">
+        <v>475</v>
+      </c>
+      <c r="F24" t="s" s="3">
         <v>476</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="G24" t="s" s="3">
         <v>477</v>
-      </c>
-      <c r="G24" t="s" s="3">
-        <v>478</v>
       </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="B25" t="s" s="3">
         <v>474</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>475</v>
       </c>
       <c r="C25" t="s" s="3">
         <v>109</v>
@@ -15896,22 +15883,22 @@
         <v>381</v>
       </c>
       <c r="E25" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="F25" t="s" s="3">
         <v>479</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="G25" t="s" s="3">
         <v>480</v>
-      </c>
-      <c r="G25" t="s" s="3">
-        <v>481</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="B26" t="s" s="3">
         <v>482</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>483</v>
       </c>
       <c r="C26" t="s" s="3">
         <v>206</v>
@@ -15920,13 +15907,13 @@
         <v>381</v>
       </c>
       <c r="E26" t="s" s="3">
+        <v>483</v>
+      </c>
+      <c r="F26" t="s" s="3">
         <v>484</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="G26" t="s" s="3">
         <v>485</v>
-      </c>
-      <c r="G26" t="s" s="3">
-        <v>486</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -15944,19 +15931,19 @@
         <v>381</v>
       </c>
       <c r="E27" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="F27" t="s" s="3">
         <v>487</v>
       </c>
-      <c r="F27" t="s" s="3">
-        <v>488</v>
-      </c>
       <c r="G27" t="s" s="3">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B28" s="7">
         <v>730074007500</v>
@@ -15972,13 +15959,13 @@
         <v>393</v>
       </c>
       <c r="G28" t="s" s="3">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B29" t="s" s="3">
         <v>160</v>
@@ -15990,37 +15977,37 @@
         <v>381</v>
       </c>
       <c r="E29" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F29" t="s" s="3">
         <v>490</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="G29" t="s" s="3">
         <v>491</v>
-      </c>
-      <c r="G29" t="s" s="3">
-        <v>492</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B30" t="s" s="3">
         <v>160</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D30" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F30" t="s" s="3">
         <v>159</v>
       </c>
       <c r="G30" t="s" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -16032,17 +16019,17 @@
         <v>271</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D31" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" t="s" s="3">
+        <v>495</v>
+      </c>
+      <c r="G31" t="s" s="3">
         <v>496</v>
-      </c>
-      <c r="G31" t="s" s="3">
-        <v>497</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -16054,17 +16041,17 @@
         <v>345</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D32" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" t="s" s="3">
+        <v>498</v>
+      </c>
+      <c r="G32" t="s" s="3">
         <v>499</v>
-      </c>
-      <c r="G32" t="s" s="3">
-        <v>500</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -16073,20 +16060,20 @@
         <v>39</v>
       </c>
       <c r="B33" t="s" s="3">
+        <v>500</v>
+      </c>
+      <c r="C33" t="s" s="3">
         <v>501</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>502</v>
       </c>
       <c r="D33" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="G33" t="s" s="3">
         <v>503</v>
-      </c>
-      <c r="G33" t="s" s="3">
-        <v>504</v>
       </c>
       <c r="H33" s="4"/>
     </row>
@@ -16095,7 +16082,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C34" t="s" s="3">
         <v>110</v>
@@ -16104,13 +16091,13 @@
         <v>381</v>
       </c>
       <c r="E34" t="s" s="3">
+        <v>505</v>
+      </c>
+      <c r="F34" t="s" s="3">
         <v>506</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="G34" t="s" s="3">
         <v>507</v>
-      </c>
-      <c r="G34" t="s" s="3">
-        <v>508</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -16119,22 +16106,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D35" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E35" t="s" s="3">
+        <v>509</v>
+      </c>
+      <c r="F35" t="s" s="3">
         <v>510</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="G35" t="s" s="3">
         <v>511</v>
-      </c>
-      <c r="G35" t="s" s="3">
-        <v>512</v>
       </c>
       <c r="H35" s="4"/>
     </row>
@@ -16143,7 +16130,7 @@
         <v>97</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C36" t="s" s="3">
         <v>196</v>
@@ -16152,13 +16139,13 @@
         <v>381</v>
       </c>
       <c r="E36" t="s" s="3">
+        <v>513</v>
+      </c>
+      <c r="F36" t="s" s="3">
         <v>514</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="G36" t="s" s="3">
         <v>515</v>
-      </c>
-      <c r="G36" t="s" s="3">
-        <v>516</v>
       </c>
       <c r="H36" s="4"/>
     </row>
@@ -16167,7 +16154,7 @@
         <v>97</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C37" t="s" s="3">
         <v>10</v>
@@ -16179,10 +16166,10 @@
         <v>1150</v>
       </c>
       <c r="F37" t="s" s="3">
+        <v>517</v>
+      </c>
+      <c r="G37" t="s" s="3">
         <v>518</v>
-      </c>
-      <c r="G37" t="s" s="3">
-        <v>519</v>
       </c>
       <c r="H37" s="4"/>
     </row>
@@ -16191,7 +16178,7 @@
         <v>97</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C38" t="s" s="3">
         <v>206</v>
@@ -16201,10 +16188,10 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="G38" t="s" s="3">
         <v>521</v>
-      </c>
-      <c r="G38" t="s" s="3">
-        <v>522</v>
       </c>
       <c r="H38" s="4"/>
     </row>
@@ -16213,20 +16200,20 @@
         <v>97</v>
       </c>
       <c r="B39" t="s" s="3">
+        <v>522</v>
+      </c>
+      <c r="C39" t="s" s="3">
         <v>523</v>
-      </c>
-      <c r="C39" t="s" s="3">
-        <v>524</v>
       </c>
       <c r="D39" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="G39" t="s" s="3">
         <v>525</v>
-      </c>
-      <c r="G39" t="s" s="3">
-        <v>526</v>
       </c>
       <c r="H39" s="4"/>
     </row>
@@ -16235,22 +16222,22 @@
         <v>97</v>
       </c>
       <c r="B40" t="s" s="3">
+        <v>526</v>
+      </c>
+      <c r="C40" t="s" s="3">
         <v>527</v>
-      </c>
-      <c r="C40" t="s" s="3">
-        <v>528</v>
       </c>
       <c r="D40" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E40" t="s" s="3">
+        <v>528</v>
+      </c>
+      <c r="F40" t="s" s="3">
         <v>529</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="G40" t="s" s="3">
         <v>530</v>
-      </c>
-      <c r="G40" t="s" s="3">
-        <v>531</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -16259,7 +16246,7 @@
         <v>97</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C41" s="6">
         <v>2000</v>
@@ -16269,10 +16256,10 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" t="s" s="3">
+        <v>531</v>
+      </c>
+      <c r="G41" t="s" s="3">
         <v>532</v>
-      </c>
-      <c r="G41" t="s" s="3">
-        <v>533</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -16281,7 +16268,7 @@
         <v>97</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C42" t="s" s="3">
         <v>59</v>
@@ -16290,20 +16277,20 @@
         <v>381</v>
       </c>
       <c r="E42" t="s" s="3">
+        <v>534</v>
+      </c>
+      <c r="F42" t="s" s="3">
         <v>535</v>
-      </c>
-      <c r="F42" t="s" s="3">
-        <v>536</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="3">
+        <v>536</v>
+      </c>
+      <c r="B43" t="s" s="3">
         <v>537</v>
-      </c>
-      <c r="B43" t="s" s="3">
-        <v>538</v>
       </c>
       <c r="C43" t="s" s="3">
         <v>268</v>
@@ -16312,13 +16299,13 @@
         <v>381</v>
       </c>
       <c r="E43" t="s" s="3">
+        <v>538</v>
+      </c>
+      <c r="F43" t="s" s="3">
         <v>539</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="G43" t="s" s="3">
         <v>540</v>
-      </c>
-      <c r="G43" t="s" s="3">
-        <v>541</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -16328,19 +16315,19 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" t="s" s="3">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D44" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E44" t="s" s="3">
+        <v>542</v>
+      </c>
+      <c r="F44" t="s" s="3">
         <v>543</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="G44" t="s" s="3">
         <v>544</v>
-      </c>
-      <c r="G44" t="s" s="3">
-        <v>545</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -16358,13 +16345,13 @@
         <v>381</v>
       </c>
       <c r="E45" t="s" s="3">
+        <v>545</v>
+      </c>
+      <c r="F45" t="s" s="3">
         <v>546</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="G45" t="s" s="3">
         <v>547</v>
-      </c>
-      <c r="G45" t="s" s="3">
-        <v>548</v>
       </c>
       <c r="H45" s="4"/>
     </row>
@@ -16382,13 +16369,13 @@
         <v>381</v>
       </c>
       <c r="E46" t="s" s="3">
+        <v>548</v>
+      </c>
+      <c r="F46" t="s" s="3">
         <v>549</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="G46" t="s" s="3">
         <v>550</v>
-      </c>
-      <c r="G46" t="s" s="3">
-        <v>551</v>
       </c>
       <c r="H46" s="4"/>
     </row>
@@ -16407,10 +16394,10 @@
       </c>
       <c r="E47" s="33"/>
       <c r="F47" t="s" s="3">
+        <v>551</v>
+      </c>
+      <c r="G47" t="s" s="3">
         <v>552</v>
-      </c>
-      <c r="G47" t="s" s="3">
-        <v>553</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -16422,41 +16409,41 @@
         <v>330325</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D48" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" t="s" s="3">
+        <v>554</v>
+      </c>
+      <c r="G48" t="s" s="3">
         <v>555</v>
-      </c>
-      <c r="G48" t="s" s="3">
-        <v>556</v>
       </c>
       <c r="H48" s="4"/>
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="3">
+        <v>556</v>
+      </c>
+      <c r="B49" t="s" s="3">
         <v>557</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="C49" t="s" s="3">
         <v>558</v>
-      </c>
-      <c r="C49" t="s" s="3">
-        <v>559</v>
       </c>
       <c r="D49" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E49" t="s" s="3">
+        <v>559</v>
+      </c>
+      <c r="F49" t="s" s="3">
         <v>560</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="G49" t="s" s="3">
         <v>561</v>
-      </c>
-      <c r="G49" t="s" s="3">
-        <v>562</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -16465,20 +16452,20 @@
         <v>34</v>
       </c>
       <c r="B50" t="s" s="8">
+        <v>562</v>
+      </c>
+      <c r="C50" t="s" s="3">
         <v>563</v>
-      </c>
-      <c r="C50" t="s" s="3">
-        <v>564</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" t="s" s="3">
+        <v>564</v>
+      </c>
+      <c r="F50" t="s" s="3">
         <v>565</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="G50" t="s" s="3">
         <v>566</v>
-      </c>
-      <c r="G50" t="s" s="3">
-        <v>567</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -16490,19 +16477,19 @@
         <v>386</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D51" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E51" t="s" s="3">
+        <v>568</v>
+      </c>
+      <c r="F51" t="s" s="3">
         <v>569</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="G51" t="s" s="3">
         <v>570</v>
-      </c>
-      <c r="G51" t="s" s="3">
-        <v>571</v>
       </c>
       <c r="H51" s="4"/>
     </row>
@@ -16520,13 +16507,13 @@
         <v>381</v>
       </c>
       <c r="E52" t="s" s="3">
+        <v>571</v>
+      </c>
+      <c r="F52" t="s" s="3">
         <v>572</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="G52" t="s" s="3">
         <v>573</v>
-      </c>
-      <c r="G52" t="s" s="3">
-        <v>574</v>
       </c>
       <c r="H52" s="4"/>
     </row>
@@ -16535,7 +16522,7 @@
         <v>39</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C53" t="s" s="3">
         <v>59</v>
@@ -16544,13 +16531,13 @@
         <v>381</v>
       </c>
       <c r="E53" t="s" s="3">
+        <v>571</v>
+      </c>
+      <c r="F53" t="s" s="3">
         <v>572</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="G53" t="s" s="3">
         <v>573</v>
-      </c>
-      <c r="G53" t="s" s="3">
-        <v>574</v>
       </c>
       <c r="H53" s="4"/>
     </row>
@@ -16559,20 +16546,20 @@
         <v>91</v>
       </c>
       <c r="B54" t="s" s="3">
+        <v>575</v>
+      </c>
+      <c r="C54" t="s" s="3">
         <v>576</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>577</v>
       </c>
       <c r="D54" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" t="s" s="3">
+        <v>577</v>
+      </c>
+      <c r="G54" t="s" s="3">
         <v>578</v>
-      </c>
-      <c r="G54" t="s" s="3">
-        <v>579</v>
       </c>
       <c r="H54" s="4"/>
     </row>
@@ -16584,17 +16571,17 @@
         <v>92</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D55" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" t="s" s="3">
+        <v>579</v>
+      </c>
+      <c r="G55" t="s" s="3">
         <v>580</v>
-      </c>
-      <c r="G55" t="s" s="3">
-        <v>581</v>
       </c>
       <c r="H55" s="4"/>
     </row>
@@ -16603,7 +16590,7 @@
         <v>91</v>
       </c>
       <c r="B56" t="s" s="3">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C56" s="6">
         <v>2000</v>
@@ -16613,7 +16600,7 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" t="s" s="3">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -16623,22 +16610,22 @@
         <v>91</v>
       </c>
       <c r="B57" t="s" s="3">
+        <v>583</v>
+      </c>
+      <c r="C57" t="s" s="3">
         <v>584</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>585</v>
       </c>
       <c r="D57" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E57" t="s" s="3">
+        <v>585</v>
+      </c>
+      <c r="F57" t="s" s="3">
         <v>586</v>
       </c>
-      <c r="F57" t="s" s="3">
+      <c r="G57" t="s" s="3">
         <v>587</v>
-      </c>
-      <c r="G57" t="s" s="3">
-        <v>588</v>
       </c>
       <c r="H57" s="4"/>
     </row>
@@ -16647,7 +16634,7 @@
         <v>86</v>
       </c>
       <c r="B58" t="s" s="3">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C58" t="s" s="3">
         <v>396</v>
@@ -16656,13 +16643,13 @@
         <v>381</v>
       </c>
       <c r="E58" t="s" s="3">
+        <v>589</v>
+      </c>
+      <c r="F58" t="s" s="3">
         <v>590</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="G58" t="s" s="3">
         <v>591</v>
-      </c>
-      <c r="G58" t="s" s="3">
-        <v>592</v>
       </c>
       <c r="H58" s="4"/>
     </row>
@@ -16671,20 +16658,20 @@
         <v>86</v>
       </c>
       <c r="B59" t="s" s="3">
+        <v>592</v>
+      </c>
+      <c r="C59" t="s" s="3">
         <v>593</v>
-      </c>
-      <c r="C59" t="s" s="3">
-        <v>594</v>
       </c>
       <c r="D59" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" t="s" s="3">
+        <v>594</v>
+      </c>
+      <c r="G59" t="s" s="3">
         <v>595</v>
-      </c>
-      <c r="G59" t="s" s="3">
-        <v>596</v>
       </c>
       <c r="H59" s="4"/>
     </row>
@@ -16693,20 +16680,20 @@
         <v>86</v>
       </c>
       <c r="B60" t="s" s="3">
+        <v>596</v>
+      </c>
+      <c r="C60" t="s" s="3">
         <v>597</v>
-      </c>
-      <c r="C60" t="s" s="3">
-        <v>598</v>
       </c>
       <c r="D60" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" t="s" s="3">
+        <v>598</v>
+      </c>
+      <c r="G60" t="s" s="3">
         <v>599</v>
-      </c>
-      <c r="G60" t="s" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="4"/>
     </row>
@@ -16718,20 +16705,20 @@
         <v>4700</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D61" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" t="s" s="3">
+        <v>435</v>
+      </c>
+      <c r="G61" t="s" s="3">
         <v>436</v>
       </c>
-      <c r="G61" t="s" s="3">
-        <v>437</v>
-      </c>
       <c r="H61" t="s" s="3">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" ht="13.55" customHeight="1">
@@ -16739,7 +16726,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s" s="3">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C62" t="s" s="3">
         <v>263</v>
@@ -16748,13 +16735,13 @@
         <v>381</v>
       </c>
       <c r="E62" t="s" s="3">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F62" t="s" s="3">
         <v>159</v>
       </c>
       <c r="G62" t="s" s="3">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H62" s="4"/>
     </row>
@@ -16763,31 +16750,31 @@
         <v>400</v>
       </c>
       <c r="B63" t="s" s="3">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D63" t="s" s="3">
         <v>381</v>
       </c>
       <c r="E63" t="s" s="3">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F63" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="G63" t="s" s="3">
         <v>467</v>
-      </c>
-      <c r="G63" t="s" s="3">
-        <v>468</v>
       </c>
       <c r="H63" s="4"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C64" t="s" s="3">
         <v>122</v>
@@ -16796,13 +16783,13 @@
         <v>381</v>
       </c>
       <c r="E64" t="s" s="3">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F64" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="G64" t="s" s="3">
         <v>451</v>
-      </c>
-      <c r="G64" t="s" s="3">
-        <v>452</v>
       </c>
       <c r="H64" s="4"/>
     </row>
@@ -16811,7 +16798,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s" s="3">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C65" t="s" s="3">
         <v>69</v>
@@ -16821,7 +16808,7 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" t="s" s="3">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -16838,7 +16825,7 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" t="s" s="3">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F66" s="6">
         <v>1402013</v>
@@ -16858,7 +16845,7 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" t="s" s="3">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -16932,27 +16919,27 @@
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2" t="s" s="3">
         <v>259</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E2" s="6">
         <v>226577000</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" t="s" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J2" s="32">
         <v>390</v>
@@ -16961,29 +16948,29 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B3" t="s" s="3">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>600</v>
+      </c>
+      <c r="D3" t="s" s="3">
         <v>613</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>601</v>
-      </c>
-      <c r="D3" t="s" s="3">
-        <v>614</v>
       </c>
       <c r="E3" s="6">
         <v>226577000</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" t="s" s="3">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J3" s="32">
         <v>390</v>
@@ -16992,7 +16979,7 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s" s="3">
         <v>54</v>
@@ -17001,18 +16988,18 @@
         <v>59</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E4" s="6">
         <v>226577000</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" t="s" s="3">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J4" s="32">
         <v>379</v>
@@ -17024,24 +17011,24 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C5" t="s" s="3">
         <v>138</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E5" t="s" s="3">
+        <v>621</v>
+      </c>
+      <c r="F5" t="s" s="3">
         <v>622</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>623</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" t="s" s="3">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J5" s="32">
         <v>249</v>
@@ -17056,21 +17043,21 @@
         <v>387389</v>
       </c>
       <c r="C6" t="s" s="3">
+        <v>624</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E6" t="s" s="3">
         <v>625</v>
       </c>
-      <c r="D6" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>626</v>
-      </c>
       <c r="F6" t="s" s="3">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" t="s" s="3">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J6" s="32">
         <v>249</v>
@@ -17079,27 +17066,27 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>626</v>
+      </c>
+      <c r="B7" t="s" s="3">
         <v>627</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="C7" t="s" s="3">
         <v>628</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="D7" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>629</v>
       </c>
-      <c r="D7" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E7" t="s" s="3">
+      <c r="F7" t="s" s="3">
         <v>630</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>631</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" t="s" s="3">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J7" s="32">
         <v>249</v>
@@ -17108,29 +17095,29 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B8" t="s" s="36">
         <v>43</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E8" t="s" s="3">
+        <v>632</v>
+      </c>
+      <c r="F8" t="s" s="3">
         <v>633</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>634</v>
       </c>
       <c r="G8" t="s" s="3">
         <v>97</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" t="s" s="3">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J8" s="32">
         <v>249</v>
@@ -17142,24 +17129,24 @@
         <v>97</v>
       </c>
       <c r="B9" t="s" s="3">
+        <v>635</v>
+      </c>
+      <c r="C9" t="s" s="3">
         <v>636</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>637</v>
-      </c>
       <c r="D9" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E9" s="6">
         <v>85130015</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" t="s" s="3">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J9" s="32">
         <v>249</v>
@@ -17174,21 +17161,21 @@
         <v>377</v>
       </c>
       <c r="C10" t="s" s="3">
+        <v>636</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E10" t="s" s="3">
         <v>637</v>
       </c>
-      <c r="D10" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E10" t="s" s="3">
+      <c r="F10" t="s" s="3">
         <v>638</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>639</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" t="s" s="3">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J10" s="32">
         <v>249</v>
@@ -17203,21 +17190,21 @@
         <v>345</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E11" t="s" s="3">
+        <v>637</v>
+      </c>
+      <c r="F11" t="s" s="3">
         <v>638</v>
-      </c>
-      <c r="F11" t="s" s="3">
-        <v>639</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" t="s" s="3">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J11" s="32">
         <v>249</v>
@@ -17229,24 +17216,24 @@
         <v>34</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C12" t="s" s="3">
+        <v>641</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E12" t="s" s="3">
         <v>642</v>
       </c>
-      <c r="D12" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E12" t="s" s="3">
+      <c r="F12" t="s" s="3">
         <v>643</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>644</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" t="s" s="3">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J12" s="32">
         <v>249</v>
@@ -17264,18 +17251,18 @@
         <v>268</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E13" t="s" s="3">
+        <v>642</v>
+      </c>
+      <c r="F13" t="s" s="3">
         <v>643</v>
-      </c>
-      <c r="F13" t="s" s="3">
-        <v>644</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" t="s" s="3">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J13" s="32">
         <v>249</v>
@@ -17287,26 +17274,26 @@
         <v>39</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C14" t="s" s="3">
         <v>175</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E14" t="s" s="3">
+        <v>647</v>
+      </c>
+      <c r="F14" t="s" s="3">
         <v>648</v>
-      </c>
-      <c r="F14" t="s" s="3">
-        <v>649</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" t="s" s="3">
+        <v>649</v>
+      </c>
+      <c r="I14" t="s" s="3">
         <v>650</v>
-      </c>
-      <c r="I14" t="s" s="3">
-        <v>651</v>
       </c>
       <c r="J14" s="32">
         <v>249</v>
@@ -17318,26 +17305,26 @@
         <v>39</v>
       </c>
       <c r="B15" t="s" s="3">
+        <v>651</v>
+      </c>
+      <c r="C15" t="s" s="3">
         <v>652</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="D15" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E15" t="s" s="3">
         <v>653</v>
       </c>
-      <c r="D15" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>654</v>
-      </c>
       <c r="F15" t="s" s="3">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" t="s" s="3">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I15" t="s" s="3">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J15" s="32">
         <v>249.99</v>
@@ -17346,50 +17333,50 @@
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E16" t="s" s="3">
+        <v>656</v>
+      </c>
+      <c r="F16" t="s" s="3">
         <v>657</v>
-      </c>
-      <c r="F16" t="s" s="3">
-        <v>658</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" t="s" s="3">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="3">
+        <v>659</v>
+      </c>
+      <c r="B17" t="s" s="3">
         <v>660</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="C17" t="s" s="3">
         <v>661</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="D17" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E17" t="s" s="3">
         <v>662</v>
       </c>
-      <c r="D17" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E17" t="s" s="3">
+      <c r="F17" t="s" s="3">
         <v>663</v>
-      </c>
-      <c r="F17" t="s" s="3">
-        <v>664</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" t="s" s="3">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="4"/>
@@ -17402,23 +17389,23 @@
         <v>375</v>
       </c>
       <c r="C18" t="s" s="3">
+        <v>665</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E18" t="s" s="3">
         <v>666</v>
       </c>
-      <c r="D18" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E18" t="s" s="3">
+      <c r="F18" t="s" s="3">
         <v>667</v>
-      </c>
-      <c r="F18" t="s" s="3">
-        <v>668</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" t="s" s="3">
+        <v>668</v>
+      </c>
+      <c r="I18" t="s" s="3">
         <v>669</v>
-      </c>
-      <c r="I18" t="s" s="3">
-        <v>670</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="4"/>
@@ -17428,26 +17415,26 @@
         <v>16</v>
       </c>
       <c r="B19" t="s" s="37">
+        <v>670</v>
+      </c>
+      <c r="C19" t="s" s="3">
         <v>671</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="D19" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E19" t="s" s="3">
         <v>672</v>
       </c>
-      <c r="D19" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E19" t="s" s="3">
+      <c r="F19" t="s" s="3">
         <v>673</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>674</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" t="s" s="3">
+        <v>674</v>
+      </c>
+      <c r="I19" t="s" s="3">
         <v>675</v>
-      </c>
-      <c r="I19" t="s" s="3">
-        <v>676</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="4"/>
@@ -17457,26 +17444,26 @@
         <v>16</v>
       </c>
       <c r="B20" t="s" s="38">
+        <v>676</v>
+      </c>
+      <c r="C20" t="s" s="3">
         <v>677</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="D20" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E20" t="s" s="3">
         <v>678</v>
       </c>
-      <c r="D20" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E20" t="s" s="3">
+      <c r="F20" t="s" s="3">
         <v>679</v>
-      </c>
-      <c r="F20" t="s" s="3">
-        <v>680</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" t="s" s="3">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I20" t="s" s="3">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="4"/>
@@ -17492,18 +17479,18 @@
         <v>36</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E21" t="s" s="3">
+        <v>681</v>
+      </c>
+      <c r="F21" t="s" s="3">
         <v>682</v>
-      </c>
-      <c r="F21" t="s" s="3">
-        <v>683</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" t="s" s="3">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="4"/>
@@ -17513,26 +17500,26 @@
         <v>400</v>
       </c>
       <c r="B22" t="s" s="3">
+        <v>684</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E22" t="s" s="3">
         <v>685</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>427</v>
-      </c>
-      <c r="D22" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E22" t="s" s="3">
+      <c r="F22" t="s" s="3">
         <v>686</v>
-      </c>
-      <c r="F22" t="s" s="3">
-        <v>687</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" t="s" s="3">
+        <v>687</v>
+      </c>
+      <c r="I22" t="s" s="3">
         <v>688</v>
-      </c>
-      <c r="I22" t="s" s="3">
-        <v>689</v>
       </c>
       <c r="J22" s="32">
         <v>189.99</v>
@@ -17544,26 +17531,26 @@
         <v>400</v>
       </c>
       <c r="B23" t="s" s="3">
+        <v>689</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E23" t="s" s="3">
         <v>690</v>
       </c>
-      <c r="C23" t="s" s="3">
-        <v>427</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>691</v>
-      </c>
       <c r="F23" t="s" s="3">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" t="s" s="3">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I23" t="s" s="3">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J23" s="32">
         <v>189.99</v>
@@ -17578,21 +17565,21 @@
         <v>92</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E24" t="s" s="3">
+        <v>692</v>
+      </c>
+      <c r="F24" t="s" s="3">
         <v>693</v>
-      </c>
-      <c r="F24" t="s" s="3">
-        <v>694</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" t="s" s="3">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="4"/>
@@ -17605,46 +17592,46 @@
         <v>92</v>
       </c>
       <c r="C25" t="s" s="3">
+        <v>695</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E25" t="s" s="3">
         <v>696</v>
       </c>
-      <c r="D25" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E25" t="s" s="3">
+      <c r="F25" t="s" s="3">
         <v>697</v>
-      </c>
-      <c r="F25" t="s" s="3">
-        <v>698</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" t="s" s="3">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J25" s="32"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="3">
+        <v>699</v>
+      </c>
+      <c r="B26" t="s" s="3">
         <v>700</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>701</v>
       </c>
       <c r="C26" s="6">
         <v>2003</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" t="s" s="3">
+        <v>701</v>
+      </c>
+      <c r="F26" t="s" s="3">
         <v>702</v>
-      </c>
-      <c r="F26" t="s" s="3">
-        <v>703</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" t="s" s="3">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -17659,17 +17646,17 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" t="s" s="3">
+        <v>701</v>
+      </c>
+      <c r="F27" t="s" s="3">
         <v>702</v>
-      </c>
-      <c r="F27" t="s" s="3">
-        <v>703</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" t="s" s="3">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I27" t="s" s="3">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -17679,20 +17666,20 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E28" s="6">
         <v>2248437000</v>
       </c>
       <c r="F28" t="s" s="3">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" t="s" s="3">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I28" t="s" s="3">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -17705,33 +17692,33 @@
         <v>54</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E29" t="s" s="3">
+        <v>707</v>
+      </c>
+      <c r="F29" t="s" s="3">
         <v>708</v>
-      </c>
-      <c r="F29" t="s" s="3">
-        <v>709</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" t="s" s="3">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E30" s="6">
         <v>2247558000</v>
@@ -17742,7 +17729,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" t="s" s="3">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -17752,26 +17739,26 @@
         <v>400</v>
       </c>
       <c r="B31" t="s" s="3">
+        <v>712</v>
+      </c>
+      <c r="C31" t="s" s="3">
         <v>713</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>714</v>
-      </c>
       <c r="D31" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E31" s="7">
         <v>47764421</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="6">
         <v>4734</v>
       </c>
       <c r="I31" t="s" s="3">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -17784,21 +17771,21 @@
         <v>345</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E32" s="6">
         <v>4377</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" t="s" s="3">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -17811,23 +17798,23 @@
         <v>345</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E33" s="6">
         <v>4377</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="6">
         <v>4425</v>
       </c>
       <c r="I33" t="s" s="3">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -17837,19 +17824,19 @@
         <v>400</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E34" s="6">
         <v>4430</v>
       </c>
       <c r="F34" t="s" s="3">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="6">
@@ -17864,19 +17851,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s" s="3">
+        <v>718</v>
+      </c>
+      <c r="C35" t="s" s="3">
         <v>719</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="D35" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="E35" t="s" s="3">
         <v>720</v>
       </c>
-      <c r="D35" t="s" s="3">
-        <v>614</v>
-      </c>
-      <c r="E35" t="s" s="3">
+      <c r="F35" t="s" s="3">
         <v>721</v>
-      </c>
-      <c r="F35" t="s" s="3">
-        <v>722</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -17886,19 +17873,19 @@
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="3">
+        <v>722</v>
+      </c>
+      <c r="B36" t="s" s="3">
         <v>723</v>
-      </c>
-      <c r="B36" t="s" s="3">
-        <v>724</v>
       </c>
       <c r="C36" t="s" s="3">
         <v>211</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F36" s="6">
         <v>1402013</v>
@@ -17914,19 +17901,19 @@
         <v>91</v>
       </c>
       <c r="B37" t="s" s="3">
+        <v>725</v>
+      </c>
+      <c r="C37" t="s" s="3">
         <v>726</v>
       </c>
-      <c r="C37" t="s" s="3">
-        <v>727</v>
-      </c>
       <c r="D37" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E37" s="6">
         <v>20721587</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -17939,19 +17926,19 @@
         <v>97</v>
       </c>
       <c r="B38" t="s" s="8">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E38" s="6">
         <v>20721587</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -17964,13 +17951,13 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E39" s="6">
         <v>4078</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -17983,10 +17970,10 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F40" s="6">
         <v>1402011</v>
@@ -18008,13 +17995,13 @@
         <v>110</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E41" s="6">
         <v>4748</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -18024,18 +18011,18 @@
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" t="s" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E42" s="6">
         <v>88310</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -18249,7 +18236,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" t="s" s="3">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K58" s="4"/>
     </row>
@@ -18301,10 +18288,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="H1" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="I1" t="s" s="3">
         <v>376</v>
@@ -18315,22 +18302,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="3">
+        <v>738</v>
+      </c>
+      <c r="C2" t="s" s="3">
         <v>739</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D2" t="s" s="3">
         <v>740</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E2" t="s" s="3">
         <v>741</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>742</v>
       </c>
       <c r="F2" s="6">
         <v>1912005</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2" s="32">
         <v>69</v>
@@ -18342,20 +18329,20 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C3" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s" s="3">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F3" s="6">
         <v>1912008</v>
       </c>
       <c r="G3" t="s" s="3">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H3" s="32">
         <v>69</v>
@@ -18367,20 +18354,20 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C4" t="s" s="3">
         <v>206</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s" s="3">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F4" s="6">
         <v>1912010</v>
       </c>
       <c r="G4" t="s" s="3">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H4" s="32">
         <v>69</v>
@@ -18392,20 +18379,20 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C5" t="s" s="3">
         <v>196</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" t="s" s="3">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F5" s="6">
         <v>1912011</v>
       </c>
       <c r="G5" t="s" s="3">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H5" s="32">
         <v>69</v>
@@ -18417,20 +18404,20 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C6" t="s" s="3">
         <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" t="s" s="3">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F6" s="6">
         <v>1912013</v>
       </c>
       <c r="G6" t="s" s="3">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H6" s="32">
         <v>89</v>
@@ -18439,23 +18426,23 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>755</v>
+      </c>
+      <c r="B7" t="s" s="3">
         <v>756</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>757</v>
       </c>
       <c r="C7" t="s" s="3">
         <v>211</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s" s="3">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F7" s="6">
         <v>1913004</v>
       </c>
       <c r="G7" t="s" s="3">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H7" s="32">
         <v>69</v>
@@ -18464,23 +18451,23 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="3">
+        <v>759</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>760</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>761</v>
       </c>
       <c r="C8" t="s" s="3">
         <v>206</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s" s="3">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F8" s="6">
         <v>1913007</v>
       </c>
       <c r="G8" t="s" s="3">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H8" s="32">
         <v>69</v>
@@ -18492,20 +18479,20 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="3">
+        <v>763</v>
+      </c>
+      <c r="C9" t="s" s="3">
         <v>764</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>765</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s" s="3">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F9" s="6">
         <v>1914003</v>
       </c>
       <c r="G9" t="s" s="3">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H9" s="32">
         <v>69</v>
@@ -18520,17 +18507,17 @@
         <v>3.30335340377378e+20</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s" s="3">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F10" s="6">
         <v>1917004</v>
       </c>
       <c r="G10" t="s" s="3">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H10" s="32">
         <v>69</v>
@@ -18545,17 +18532,17 @@
         <v>365367384386389</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s" s="3">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F11" s="6">
         <v>1917003</v>
       </c>
       <c r="G11" t="s" s="3">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H11" s="32">
         <v>69</v>
@@ -18567,7 +18554,7 @@
         <v>91</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C12" t="s" s="3">
         <v>110</v>
@@ -18580,7 +18567,7 @@
         <v>1918005</v>
       </c>
       <c r="G12" t="s" s="3">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H12" s="32">
         <v>69</v>
@@ -18589,23 +18576,23 @@
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B13" s="7">
         <v>1800490058005900</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s" s="3">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F13" s="6">
         <v>1919003</v>
       </c>
       <c r="G13" t="s" s="3">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H13" s="32">
         <v>69</v>
@@ -18617,20 +18604,20 @@
         <v>39</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" t="s" s="3">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F14" s="6">
         <v>1999046</v>
       </c>
       <c r="G14" t="s" s="3">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H14" s="32">
         <v>69</v>
@@ -18645,17 +18632,17 @@
         <v>387</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" t="s" s="3">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F15" s="6">
         <v>1999046</v>
       </c>
       <c r="G15" t="s" s="3">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H15" s="32">
         <v>69</v>
@@ -18673,16 +18660,16 @@
         <v>36</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F16" s="6">
         <v>1912015</v>
       </c>
       <c r="G16" t="s" s="3">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H16" s="32">
         <v>89</v>
@@ -18707,14 +18694,14 @@
         <v>34</v>
       </c>
       <c r="B18" t="s" s="3">
+        <v>784</v>
+      </c>
+      <c r="C18" t="s" s="3">
         <v>785</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>786</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s" s="3">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F18" s="6">
         <v>1917005</v>
@@ -18770,10 +18757,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="H1" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="I1" t="s" s="3">
         <v>376</v>
@@ -18791,16 +18778,16 @@
         <v>237</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E2" s="7">
         <v>2.01519037204355e+16</v>
       </c>
       <c r="F2" t="s" s="3">
+        <v>788</v>
+      </c>
+      <c r="G2" t="s" s="3">
         <v>789</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>790</v>
       </c>
       <c r="H2" s="32">
         <v>149</v>
@@ -18816,19 +18803,19 @@
         <v>92</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E3" s="6">
         <v>21074569</v>
       </c>
       <c r="F3" t="s" s="3">
+        <v>791</v>
+      </c>
+      <c r="G3" t="s" s="3">
         <v>792</v>
-      </c>
-      <c r="G3" t="s" s="3">
-        <v>793</v>
       </c>
       <c r="H3" s="32">
         <v>249</v>
@@ -18838,25 +18825,25 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="3">
+        <v>793</v>
+      </c>
+      <c r="B4" t="s" s="3">
         <v>794</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="C4" t="s" s="3">
         <v>795</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" t="s" s="3">
+        <v>787</v>
+      </c>
+      <c r="E4" t="s" s="3">
         <v>796</v>
       </c>
-      <c r="D4" t="s" s="3">
-        <v>788</v>
-      </c>
-      <c r="E4" t="s" s="3">
+      <c r="F4" t="s" s="3">
         <v>797</v>
       </c>
-      <c r="F4" t="s" s="3">
+      <c r="G4" t="s" s="3">
         <v>798</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>799</v>
       </c>
       <c r="H4" s="32">
         <v>339</v>
@@ -18869,22 +18856,22 @@
         <v>16</v>
       </c>
       <c r="B5" t="s" s="3">
+        <v>799</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>695</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>787</v>
+      </c>
+      <c r="E5" t="s" s="3">
         <v>800</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>696</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>788</v>
-      </c>
-      <c r="E5" t="s" s="3">
+      <c r="F5" t="s" s="3">
         <v>801</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="G5" t="s" s="3">
         <v>802</v>
-      </c>
-      <c r="G5" t="s" s="3">
-        <v>803</v>
       </c>
       <c r="H5" s="32">
         <v>395</v>
@@ -18903,16 +18890,16 @@
         <v>217</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E6" t="s" s="3">
+        <v>803</v>
+      </c>
+      <c r="F6" t="s" s="3">
         <v>804</v>
       </c>
-      <c r="F6" t="s" s="3">
+      <c r="G6" t="s" s="3">
         <v>805</v>
-      </c>
-      <c r="G6" t="s" s="3">
-        <v>806</v>
       </c>
       <c r="H6" s="32">
         <v>145</v>
@@ -18922,7 +18909,7 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B7" t="s" s="3">
         <v>9</v>
@@ -18931,16 +18918,16 @@
         <v>206</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E7" t="s" s="3">
+        <v>806</v>
+      </c>
+      <c r="F7" t="s" s="3">
         <v>807</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="G7" t="s" s="3">
         <v>808</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>809</v>
       </c>
       <c r="H7" s="32">
         <v>349</v>
@@ -18950,7 +18937,7 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B8" t="s" s="3">
         <v>282</v>
@@ -18959,16 +18946,16 @@
         <v>166</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E8" t="s" s="3">
+        <v>809</v>
+      </c>
+      <c r="F8" t="s" s="3">
         <v>810</v>
       </c>
-      <c r="F8" t="s" s="3">
+      <c r="G8" t="s" s="3">
         <v>811</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>812</v>
       </c>
       <c r="H8" s="32">
         <v>295</v>
@@ -18978,25 +18965,25 @@
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B9" t="s" s="3">
+        <v>812</v>
+      </c>
+      <c r="C9" t="s" s="3">
         <v>813</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="D9" t="s" s="3">
+        <v>787</v>
+      </c>
+      <c r="E9" t="s" s="3">
         <v>814</v>
       </c>
-      <c r="D9" t="s" s="3">
-        <v>788</v>
-      </c>
-      <c r="E9" t="s" s="3">
+      <c r="F9" t="s" s="3">
         <v>815</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="G9" t="s" s="3">
         <v>816</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>817</v>
       </c>
       <c r="H9" s="32">
         <v>329</v>
@@ -19006,25 +18993,25 @@
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C10" t="s" s="3">
         <v>175</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E10" t="s" s="3">
+        <v>818</v>
+      </c>
+      <c r="F10" t="s" s="3">
         <v>819</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="G10" t="s" s="3">
         <v>820</v>
-      </c>
-      <c r="G10" t="s" s="3">
-        <v>821</v>
       </c>
       <c r="H10" s="32">
         <v>135</v>
@@ -19034,25 +19021,25 @@
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E11" s="6">
         <v>523195000</v>
       </c>
       <c r="F11" t="s" s="3">
+        <v>822</v>
+      </c>
+      <c r="G11" t="s" s="3">
         <v>823</v>
-      </c>
-      <c r="G11" t="s" s="3">
-        <v>824</v>
       </c>
       <c r="H11" s="32">
         <v>199</v>
@@ -19067,13 +19054,13 @@
       <c r="B12" s="30"/>
       <c r="C12" s="4"/>
       <c r="D12" t="s" s="3">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E12" t="s" s="3">
+        <v>824</v>
+      </c>
+      <c r="F12" t="s" s="3">
         <v>825</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>826</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="32"/>
